--- a/test.xlsx
+++ b/test.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>nr_records</t>
+          <t>records</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -539,7 +539,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>19</v>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>BOLD:AAZ0265</t>
@@ -1665,7 +1667,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>BOLD:AAN5355</t>
@@ -2655,7 +2659,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>100</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>BOLD:ACL8421</t>
@@ -2819,7 +2825,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>48</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>BOLD:ACT0146</t>
@@ -2910,22 +2918,20 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>63.96</v>
+        <v>65.77</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>BOLD:AAF0441</t>
-        </is>
-      </c>
+      <c r="J45" t="n">
+        <v>100</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3539,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>98</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>BOLD:ACG5397</t>
@@ -3589,7 +3597,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>54</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>BOLD:ACD2114</t>
@@ -3757,7 +3767,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>46</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>BOLD:AAE6220</t>
@@ -5106,11 +5118,7 @@
       <c r="J84" t="n">
         <v>200</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>BOLD:AAG1021</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -5655,7 +5663,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>57</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>BOLD:AAP9858</t>
@@ -5865,7 +5875,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>100</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>BOLD:AAH3617</t>
@@ -6025,7 +6037,9 @@
           <t>Private</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>13</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -6351,7 +6365,9 @@
           <t>Private</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -6395,7 +6411,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>100</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>BOLD:ACO7033</t>
@@ -6559,7 +6577,9 @@
           <t>Private</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -6777,7 +6797,9 @@
           <t>Private</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>37</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -7057,7 +7079,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>BOLD:ADB5887;BOLD:ADB5816</t>
@@ -7333,7 +7357,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>BOLD:AAV4655</t>
@@ -7667,7 +7693,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>52</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>BOLD:AAP8630</t>
@@ -7889,7 +7917,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>99</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>BOLD:ACD9509</t>
@@ -8555,7 +8585,9 @@
           <t>Private</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -9511,7 +9543,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>47</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>BOLD:AAB1544</t>
@@ -10197,7 +10231,9 @@
           <t>Private</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>23</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>BOLD:AAP8113</t>
@@ -10245,7 +10281,9 @@
           <t>Private</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>53</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>BOLD:ACW9529;BOLD:ADX0923;BOLD:AAN5284;BOLD:ADB2803;BOLD:ADB9072;BOLD:ADP3319</t>
@@ -10567,7 +10605,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>100</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>BOLD:ACD9582</t>
@@ -10885,7 +10925,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>BOLD:ADW1806;BOLD:ABW5536;BOLD:ACA8472</t>
@@ -10991,7 +11033,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>96</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>BOLD:ACR1182;BOLD:ACO0853;BOLD:AFD3568;BOLD:ACU9418</t>
@@ -11209,7 +11253,9 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>53</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>BOLD:ABA7873;BOLD:ADL7514;BOLD:ACL9928;BOLD:ACC1749;BOLD:ACI8127;BOLD:ABA6426;BOLD:AAN5274;BOLD:AEH9993;BOLD:AEF0097;BOLD:AEE1095</t>
@@ -11377,7 +11423,9 @@
           <t>Private</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
